--- a/LeanApps/TestData/A.xlsx
+++ b/LeanApps/TestData/A.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,37 +19,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>A</t>
+    <t>Email</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Password</t>
   </si>
   <si>
-    <t>C</t>
+    <t>Message</t>
   </si>
   <si>
-    <t>a</t>
+    <t>LeanApp@theleanapps.com</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>P@ssw0rd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +78,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,47 +361,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
